--- a/exe/TSV/Excel/TH67_Shin-Nozaki_UIList.xlsx
+++ b/exe/TSV/Excel/TH67_Shin-Nozaki_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F90853A-B34F-417C-BDAE-C0EFCFD3ACCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812D13BB-844C-446B-B475-8DCD844581A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="4440" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="3975" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH67_新野崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="373">
   <si>
     <t>Type</t>
   </si>
@@ -609,6 +609,9 @@
     <t>物理てこ</t>
   </si>
   <si>
+    <t>TH67_1</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -627,7 +630,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>1RA</t>
+    <t>新野崎上り場内1RA</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -639,7 +642,7 @@
     <t>1RB_G</t>
   </si>
   <si>
-    <t>1RB</t>
+    <t>新野崎上り場内1RB</t>
   </si>
   <si>
     <t>TextBlock</t>
@@ -657,6 +660,9 @@
     <t>2L</t>
   </si>
   <si>
+    <t>TH67_2</t>
+  </si>
+  <si>
     <t>-1,0</t>
   </si>
   <si>
@@ -669,24 +675,39 @@
     <t>2L_G</t>
   </si>
   <si>
+    <t>新野崎下り出発2L</t>
+  </si>
+  <si>
     <t>2L_Label</t>
   </si>
   <si>
     <t>3L</t>
   </si>
   <si>
+    <t>TH67_3</t>
+  </si>
+  <si>
     <t>3L_G</t>
   </si>
   <si>
+    <t>新野崎下り出発3L</t>
+  </si>
+  <si>
     <t>3L_Label</t>
   </si>
   <si>
     <t>4L</t>
   </si>
   <si>
+    <t>TH67_4</t>
+  </si>
+  <si>
     <t>4L_G</t>
   </si>
   <si>
+    <t>新野崎下り場内4L</t>
+  </si>
+  <si>
     <t>4L_Label</t>
   </si>
   <si>
@@ -714,9 +735,15 @@
     <t>5L</t>
   </si>
   <si>
+    <t>TH67_5</t>
+  </si>
+  <si>
     <t>5L_G</t>
   </si>
   <si>
+    <t>新野崎下り場内5L</t>
+  </si>
+  <si>
     <t>5L_Label</t>
   </si>
   <si>
@@ -735,52 +762,79 @@
     <t>6R</t>
   </si>
   <si>
+    <t>TH67_6</t>
+  </si>
+  <si>
     <t>6R_G</t>
   </si>
   <si>
+    <t>新野崎上り出発6R</t>
+  </si>
+  <si>
     <t>6R_Label</t>
   </si>
   <si>
     <t>7R</t>
   </si>
   <si>
+    <t>TH67_7</t>
+  </si>
+  <si>
     <t>7R_G</t>
   </si>
   <si>
+    <t>新野崎上り出発7R</t>
+  </si>
+  <si>
     <t>7R_Label</t>
   </si>
   <si>
     <t>8R</t>
   </si>
   <si>
+    <t>TH67_8</t>
+  </si>
+  <si>
     <t>8R_G</t>
   </si>
   <si>
+    <t>新野崎上り出発8R</t>
+  </si>
+  <si>
     <t>8R_Label</t>
   </si>
   <si>
     <t>9R</t>
   </si>
   <si>
+    <t>TH67_9</t>
+  </si>
+  <si>
     <t>9R_G</t>
   </si>
   <si>
+    <t>新野崎上り出発9R</t>
+  </si>
+  <si>
     <t>9R_Label</t>
   </si>
   <si>
     <t>10L</t>
   </si>
   <si>
+    <t>TH67_10</t>
+  </si>
+  <si>
     <t>10LC_G</t>
   </si>
   <si>
-    <t>10LC</t>
+    <t>新野崎下り場内10LC</t>
   </si>
   <si>
     <t>10LD_G</t>
   </si>
   <si>
-    <t>10LD</t>
+    <t>新野崎下り場内10LD</t>
   </si>
   <si>
     <t>10L_Label</t>
@@ -789,45 +843,63 @@
     <t>21L_Y</t>
   </si>
   <si>
-    <t>21L</t>
+    <t>新野崎入換21L</t>
   </si>
   <si>
     <t>22L_Y</t>
   </si>
   <si>
-    <t>22L</t>
+    <t>新野崎入換22L</t>
   </si>
   <si>
     <t>23R</t>
   </si>
   <si>
+    <t>TH67_23</t>
+  </si>
+  <si>
     <t>Image/Lever/Lever_Green_N.png,Image/Lever/Lever_Green_R.png</t>
   </si>
   <si>
     <t>23R_Y</t>
   </si>
   <si>
+    <t>新野崎入換23R</t>
+  </si>
+  <si>
     <t>23R_Label</t>
   </si>
   <si>
     <t>24R</t>
   </si>
   <si>
+    <t>TH67_24</t>
+  </si>
+  <si>
     <t>24R_Y</t>
   </si>
   <si>
+    <t>新野崎入換24R</t>
+  </si>
+  <si>
     <t>24R_Label</t>
   </si>
   <si>
     <t>25L</t>
   </si>
   <si>
+    <t>TH67_25</t>
+  </si>
+  <si>
     <t>Image/Lever/Lever_Green_L.png,Image/Lever/Lever_Green_N.png</t>
   </si>
   <si>
     <t>25L_Y</t>
   </si>
   <si>
+    <t>新野崎入換25L</t>
+  </si>
+  <si>
     <t>25L_Label</t>
   </si>
   <si>
@@ -840,6 +912,9 @@
     <t>着点ボタン</t>
   </si>
   <si>
+    <t>TH67_TP</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -852,48 +927,72 @@
     <t>A</t>
   </si>
   <si>
+    <t>TH67_AP</t>
+  </si>
+  <si>
     <t>A_Label</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>TH67_BP</t>
+  </si>
+  <si>
     <t>B_Label</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>TH67_CP</t>
+  </si>
+  <si>
     <t>C_Label</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
+    <t>TH67_DP</t>
+  </si>
+  <si>
     <t>D_Label</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>TH67_EP</t>
+  </si>
+  <si>
     <t>E_Label</t>
   </si>
   <si>
     <t>SC</t>
   </si>
   <si>
+    <t>TH67_SCP</t>
+  </si>
+  <si>
     <t>SC_Label</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
+    <t>TH67_SDP</t>
+  </si>
+  <si>
     <t>SD_Label</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
+    <t>TH67_SP</t>
+  </si>
+  <si>
     <t>S_Label</t>
   </si>
   <si>
@@ -909,6 +1008,12 @@
     <t>警報下り接近</t>
   </si>
   <si>
+    <t>W31</t>
+  </si>
+  <si>
+    <t>TH67_31</t>
+  </si>
+  <si>
     <t>P31</t>
   </si>
   <si>
@@ -924,82 +1029,136 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P31_PG</t>
+    <t>W31_PG</t>
   </si>
   <si>
     <t>転てつ器表示灯</t>
   </si>
   <si>
+    <t>TH67_W31</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
-    <t>P31_PY</t>
+    <t>W31_PY</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
-    <t>P31_Label</t>
+    <t>W31_Label</t>
+  </si>
+  <si>
+    <t>W32</t>
+  </si>
+  <si>
+    <t>TH67_32</t>
   </si>
   <si>
     <t>P32</t>
   </si>
   <si>
-    <t>P32_PG</t>
-  </si>
-  <si>
-    <t>P32_PY</t>
-  </si>
-  <si>
-    <t>P32_Label</t>
+    <t>W32_PG</t>
+  </si>
+  <si>
+    <t>TH67_W32</t>
+  </si>
+  <si>
+    <t>W32_PY</t>
+  </si>
+  <si>
+    <t>W32_Label</t>
+  </si>
+  <si>
+    <t>W33</t>
+  </si>
+  <si>
+    <t>TH67_33</t>
   </si>
   <si>
     <t>P33</t>
   </si>
   <si>
-    <t>P33_PG</t>
-  </si>
-  <si>
-    <t>P33_PY</t>
-  </si>
-  <si>
-    <t>P33_Label</t>
+    <t>W33_PG</t>
+  </si>
+  <si>
+    <t>TH67_W33</t>
+  </si>
+  <si>
+    <t>W33_PY</t>
+  </si>
+  <si>
+    <t>W33_Label</t>
+  </si>
+  <si>
+    <t>W34</t>
+  </si>
+  <si>
+    <t>TH67_34</t>
   </si>
   <si>
     <t>P34</t>
   </si>
   <si>
-    <t>P34_PG</t>
-  </si>
-  <si>
-    <t>P34_PY</t>
-  </si>
-  <si>
-    <t>P34_Label</t>
+    <t>W34_PG</t>
+  </si>
+  <si>
+    <t>TH67_W34</t>
+  </si>
+  <si>
+    <t>W34_PY</t>
+  </si>
+  <si>
+    <t>W34_Label</t>
+  </si>
+  <si>
+    <t>W35</t>
+  </si>
+  <si>
+    <t>TH67_35</t>
   </si>
   <si>
     <t>P35</t>
   </si>
   <si>
-    <t>P35_PG</t>
-  </si>
-  <si>
-    <t>P35_PY</t>
-  </si>
-  <si>
-    <t>P35_Label</t>
+    <t>W35_PG</t>
+  </si>
+  <si>
+    <t>TH67_W35</t>
+  </si>
+  <si>
+    <t>W35_PY</t>
+  </si>
+  <si>
+    <t>W35_Label</t>
+  </si>
+  <si>
+    <t>W36</t>
+  </si>
+  <si>
+    <t>TH67_36</t>
   </si>
   <si>
     <t>P36</t>
   </si>
   <si>
-    <t>P36_PG</t>
-  </si>
-  <si>
-    <t>P36_PY</t>
-  </si>
-  <si>
-    <t>P36_Label</t>
+    <t>W36_PG</t>
+  </si>
+  <si>
+    <t>TH67_W36</t>
+  </si>
+  <si>
+    <t>W36_PY</t>
+  </si>
+  <si>
+    <t>W36_Label</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -1032,12 +1191,15 @@
     <t>駅扱切換_PG</t>
   </si>
   <si>
-    <t>100T_1</t>
+    <t>108T_1</t>
   </si>
   <si>
     <t>軌道回路表示灯</t>
   </si>
   <si>
+    <t>上り108T</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -1050,40 +1212,58 @@
     <t>114T_1</t>
   </si>
   <si>
+    <t>上り114T</t>
+  </si>
+  <si>
     <t>120T_1</t>
   </si>
   <si>
+    <t>上り120T</t>
+  </si>
+  <si>
     <t>124T_1</t>
   </si>
   <si>
+    <t>上り124T</t>
+  </si>
+  <si>
     <t>124T_2</t>
   </si>
   <si>
     <t>TH67_1RT_1</t>
   </si>
   <si>
+    <t>TH67_1RT</t>
+  </si>
+  <si>
     <t>TH67_1RT_2</t>
   </si>
   <si>
     <t>TH67_TST_1</t>
   </si>
   <si>
+    <t>TH67_TST</t>
+  </si>
+  <si>
     <t>TH67_TST_2</t>
   </si>
   <si>
-    <t>TH67_31T_P31N_1</t>
-  </si>
-  <si>
-    <t>TH67_31T_P31N_2</t>
-  </si>
-  <si>
-    <t>TH67_31T_P31N_3</t>
-  </si>
-  <si>
-    <t>TH67_31T_P31R_1</t>
-  </si>
-  <si>
-    <t>TH67_31T_P31R_2</t>
+    <t>TH67_31T_W31N_1</t>
+  </si>
+  <si>
+    <t>TH67_31T</t>
+  </si>
+  <si>
+    <t>TH67_31T_W31N_2</t>
+  </si>
+  <si>
+    <t>TH67_31T_W31N_3</t>
+  </si>
+  <si>
+    <t>TH67_31T_W31R_1</t>
+  </si>
+  <si>
+    <t>TH67_31T_W31R_2</t>
   </si>
   <si>
     <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
@@ -1092,22 +1272,25 @@
     <t>135度</t>
   </si>
   <si>
-    <t>TH67_31T_P31R_3</t>
-  </si>
-  <si>
-    <t>TH67_32T_P32N_1</t>
-  </si>
-  <si>
-    <t>TH67_32T_P32N_2</t>
-  </si>
-  <si>
-    <t>TH67_32T_P32N_3</t>
-  </si>
-  <si>
-    <t>TH67_32T_P32R_1</t>
-  </si>
-  <si>
-    <t>TH67_32T_P32R_2</t>
+    <t>TH67_31T_W31R_3</t>
+  </si>
+  <si>
+    <t>TH67_32T_W32N_1</t>
+  </si>
+  <si>
+    <t>TH67_32T</t>
+  </si>
+  <si>
+    <t>TH67_32T_W32N_2</t>
+  </si>
+  <si>
+    <t>TH67_32T_W32N_3</t>
+  </si>
+  <si>
+    <t>TH67_32T_W32R_1</t>
+  </si>
+  <si>
+    <t>TH67_32T_W32R_2</t>
   </si>
   <si>
     <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
@@ -1116,175 +1299,238 @@
     <t>45度</t>
   </si>
   <si>
-    <t>TH67_32T_P32R_3</t>
+    <t>TH67_32T_W32R_3</t>
   </si>
   <si>
     <t>TH67_1RAT_1</t>
   </si>
   <si>
+    <t>TH67_1RAT</t>
+  </si>
+  <si>
     <t>TH67_1RAT_2</t>
   </si>
   <si>
     <t>TH67_1RBT_1</t>
   </si>
   <si>
+    <t>TH67_1RBT</t>
+  </si>
+  <si>
     <t>TH67_1RBT_2</t>
   </si>
   <si>
     <t>TH67_4LT_1</t>
   </si>
   <si>
+    <t>TH67_4LT</t>
+  </si>
+  <si>
     <t>TH67_4LT_2</t>
   </si>
   <si>
     <t>TH67_5LT_1</t>
   </si>
   <si>
+    <t>TH67_5LT</t>
+  </si>
+  <si>
     <t>TH67_5LT_2</t>
   </si>
   <si>
-    <t>TH67_33イT_P33イN_1</t>
-  </si>
-  <si>
-    <t>TH67_33イT_P33イN_2</t>
-  </si>
-  <si>
-    <t>TH67_33イT_P33イN_3</t>
-  </si>
-  <si>
-    <t>TH67_33イT_P33イR_1</t>
-  </si>
-  <si>
-    <t>TH67_33イT_P33イR_2</t>
-  </si>
-  <si>
-    <t>TH67_33イT_P33イR_3</t>
-  </si>
-  <si>
-    <t>TH67_33ロT_P33ロN_1</t>
-  </si>
-  <si>
-    <t>TH67_33ロT_P33ロN_2</t>
-  </si>
-  <si>
-    <t>TH67_33ロT_P33ロN_3</t>
-  </si>
-  <si>
-    <t>TH67_33ロT_P33ロR_1</t>
-  </si>
-  <si>
-    <t>TH67_33ロT_P33ロR_2</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34N_1</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34N_2</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34N_3</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34R_1</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34R_2</t>
-  </si>
-  <si>
-    <t>TH67_34T_P34R_3</t>
-  </si>
-  <si>
-    <t>TH67_35イT_P35イN_1</t>
-  </si>
-  <si>
-    <t>TH67_35イT_P35イN_2</t>
-  </si>
-  <si>
-    <t>TH67_35イT_P35イR_1</t>
-  </si>
-  <si>
-    <t>TH67_35イT_P35イR_2</t>
-  </si>
-  <si>
-    <t>TH67_35ロT_P35ロN_1</t>
-  </si>
-  <si>
-    <t>TH67_35ロT_P35ロN_2</t>
-  </si>
-  <si>
-    <t>TH67_35ロT_P35ロR_1</t>
-  </si>
-  <si>
-    <t>TH67_35ロT_P35ロR_2</t>
-  </si>
-  <si>
-    <t>TH67_36イT_P36イN_1</t>
-  </si>
-  <si>
-    <t>TH67_36イT_P36イN_2</t>
-  </si>
-  <si>
-    <t>TH67_36イT_P36イR_1</t>
-  </si>
-  <si>
-    <t>TH67_36イT_P36イR_2</t>
-  </si>
-  <si>
-    <t>TH67_36ロT_P36ロN_1</t>
-  </si>
-  <si>
-    <t>TH67_36ロT_P36ロN_2</t>
-  </si>
-  <si>
-    <t>TH67_36ロT_P36ロN_3</t>
-  </si>
-  <si>
-    <t>TH67_36ロT_P36ロR_1</t>
-  </si>
-  <si>
-    <t>TH67_36ロT_P36ロR_2</t>
+    <t>TH67_33イT_W33イN_1</t>
+  </si>
+  <si>
+    <t>TH67_33イT</t>
+  </si>
+  <si>
+    <t>TH67_33イT_W33イN_2</t>
+  </si>
+  <si>
+    <t>TH67_33イT_W33イN_3</t>
+  </si>
+  <si>
+    <t>TH67_33イT_W33イR_1</t>
+  </si>
+  <si>
+    <t>TH67_33イT_W33イR_2</t>
+  </si>
+  <si>
+    <t>TH67_33イT_W33イR_3</t>
+  </si>
+  <si>
+    <t>TH67_33ロT_W33ロN_1</t>
+  </si>
+  <si>
+    <t>TH67_33ロT</t>
+  </si>
+  <si>
+    <t>TH67_33ロT_W33ロN_2</t>
+  </si>
+  <si>
+    <t>TH67_33ロT_W33ロN_3</t>
+  </si>
+  <si>
+    <t>TH67_33ロT_W33ロR_1</t>
+  </si>
+  <si>
+    <t>TH67_33ロT_W33ロR_2</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34N_1</t>
+  </si>
+  <si>
+    <t>TH67_34T</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34N_2</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34N_3</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34R_1</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34R_2</t>
+  </si>
+  <si>
+    <t>TH67_34T_W34R_3</t>
+  </si>
+  <si>
+    <t>TH67_35イT_W35イN_1</t>
+  </si>
+  <si>
+    <t>TH67_35イT</t>
+  </si>
+  <si>
+    <t>TH67_35イT_W35イN_2</t>
+  </si>
+  <si>
+    <t>TH67_35イT_W35イR_1</t>
+  </si>
+  <si>
+    <t>TH67_35イT_W35イR_2</t>
+  </si>
+  <si>
+    <t>TH67_35ロT_W35ロN_1</t>
+  </si>
+  <si>
+    <t>TH67_35ロT</t>
+  </si>
+  <si>
+    <t>TH67_35ロT_W35ロN_2</t>
+  </si>
+  <si>
+    <t>TH67_35ロT_W35ロR_1</t>
+  </si>
+  <si>
+    <t>TH67_35ロT_W35ロR_2</t>
+  </si>
+  <si>
+    <t>TH67_36イT_W36イN_1</t>
+  </si>
+  <si>
+    <t>TH67_36イT</t>
+  </si>
+  <si>
+    <t>TH67_36イT_W36イN_2</t>
+  </si>
+  <si>
+    <t>TH67_36イT_W36イR_1</t>
+  </si>
+  <si>
+    <t>TH67_36イT_W36イR_2</t>
+  </si>
+  <si>
+    <t>TH67_36ロT_W36ロN_1</t>
+  </si>
+  <si>
+    <t>TH67_36ロT</t>
+  </si>
+  <si>
+    <t>TH67_36ロT_W36ロN_2</t>
+  </si>
+  <si>
+    <t>TH67_36ロT_W36ロN_3</t>
+  </si>
+  <si>
+    <t>TH67_36ロT_W36ロR_1</t>
+  </si>
+  <si>
+    <t>TH67_36ロT_W36ロR_2</t>
   </si>
   <si>
     <t>TH67_23RT_1</t>
   </si>
   <si>
+    <t>TH67_23RT</t>
+  </si>
+  <si>
     <t>TH67_23RT_2</t>
   </si>
   <si>
     <t>TH67_SST_1</t>
   </si>
   <si>
+    <t>TH67_SST</t>
+  </si>
+  <si>
     <t>TH67_SST_2</t>
   </si>
   <si>
     <t>TH67_10LT_1</t>
   </si>
   <si>
+    <t>TH67_10LT</t>
+  </si>
+  <si>
     <t>TH67_10LT_2</t>
   </si>
   <si>
     <t>137T_1</t>
   </si>
   <si>
+    <t>下り137T</t>
+  </si>
+  <si>
     <t>137T_2</t>
   </si>
   <si>
     <t>143T_1</t>
   </si>
   <si>
+    <t>下り143T</t>
+  </si>
+  <si>
     <t>145T_1</t>
   </si>
   <si>
+    <t>下り145T</t>
+  </si>
+  <si>
     <t>151T_1</t>
   </si>
   <si>
-    <t>TH66_5LET_1</t>
-  </si>
-  <si>
-    <t>TH66_53T_1</t>
-  </si>
-  <si>
-    <t>TH66_5LT_1</t>
+    <t>下り151T</t>
+  </si>
+  <si>
+    <t>TH66S_5LET_1</t>
+  </si>
+  <si>
+    <t>TH66S_5LET</t>
+  </si>
+  <si>
+    <t>TH66S_53T_1</t>
+  </si>
+  <si>
+    <t>TH66S_53T</t>
+  </si>
+  <si>
+    <t>TH66S_5LT_1</t>
+  </si>
+  <si>
+    <t>TH66S_5LT</t>
   </si>
   <si>
     <t>停電_R</t>
@@ -1347,16 +1593,10 @@
     <t>Button</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1941,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>
@@ -1967,7 +2209,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="6"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2019,7 +2261,9 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2045,19 +2289,19 @@
         <v>41</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="8">
         <v>0</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -2073,14 +2317,14 @@
         <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2105,17 +2349,17 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="12">
         <v>0</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
@@ -2131,14 +2375,14 @@
         <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2163,14 +2407,14 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y8" s="12">
         <v>0</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -2184,10 +2428,10 @@
     </row>
     <row r="9" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>41</v>
@@ -2222,10 +2466,10 @@
         <v>10</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W9" s="8" t="s">
         <v>41</v>
@@ -2249,13 +2493,15 @@
         <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2278,19 +2524,19 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="8">
         <v>0</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -2307,14 +2553,14 @@
         <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2339,14 +2585,14 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y11" s="12">
         <v>0</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -2360,13 +2606,13 @@
     </row>
     <row r="12" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2398,13 +2644,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -2425,13 +2671,15 @@
         <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2454,19 +2702,19 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="8">
         <v>0</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -2483,14 +2731,14 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2515,14 +2763,14 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y14" s="12">
         <v>0</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2536,13 +2784,13 @@
     </row>
     <row r="15" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2574,13 +2822,13 @@
         <v>10</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -2601,13 +2849,15 @@
         <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2630,19 +2880,19 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y16" s="8">
         <v>0</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -2659,14 +2909,14 @@
         <v>31</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2691,14 +2941,14 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y17" s="12">
         <v>0</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2712,13 +2962,13 @@
     </row>
     <row r="18" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2750,13 +3000,13 @@
         <v>10</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -2777,7 +3027,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -2806,22 +3056,22 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y19" s="8">
         <v>0</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -2837,14 +3087,14 @@
         <v>31</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2869,14 +3119,14 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y20" s="12">
         <v>0</v>
       </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -2890,13 +3140,13 @@
     </row>
     <row r="21" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2922,19 +3172,19 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="T21" s="8">
         <v>10</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -2955,13 +3205,15 @@
         <v>40</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2984,19 +3236,19 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y22" s="8">
         <v>0</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
@@ -3013,14 +3265,14 @@
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -3045,14 +3297,14 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y23" s="12">
         <v>0</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -3066,13 +3318,13 @@
     </row>
     <row r="24" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3104,13 +3356,13 @@
         <v>10</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
@@ -3131,7 +3383,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
@@ -3160,19 +3412,19 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y25" s="8">
         <v>0</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
@@ -3189,14 +3441,14 @@
         <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3221,14 +3473,14 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y26" s="12">
         <v>0</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -3242,13 +3494,13 @@
     </row>
     <row r="27" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3274,19 +3526,19 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="T27" s="8">
         <v>10</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W27" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -3307,13 +3559,15 @@
         <v>40</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3336,19 +3590,19 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y28" s="8">
         <v>0</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
@@ -3365,14 +3619,14 @@
         <v>31</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>84</v>
+        <v>49</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -3397,14 +3651,14 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y29" s="12">
         <v>0</v>
       </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
@@ -3418,13 +3672,13 @@
     </row>
     <row r="30" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3456,13 +3710,13 @@
         <v>10</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -3483,13 +3737,15 @@
         <v>40</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -3512,19 +3768,19 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="X31" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y31" s="8">
         <v>0</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
@@ -3541,14 +3797,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>87</v>
+        <v>49</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -3573,14 +3829,14 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y32" s="12">
         <v>0</v>
       </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
@@ -3594,13 +3850,13 @@
     </row>
     <row r="33" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3632,13 +3888,13 @@
         <v>10</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
@@ -3659,13 +3915,15 @@
         <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3688,19 +3946,19 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y34" s="8">
         <v>0</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
@@ -3717,14 +3975,14 @@
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -3749,14 +4007,14 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y35" s="12">
         <v>0</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
@@ -3770,13 +4028,13 @@
     </row>
     <row r="36" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3808,13 +4066,13 @@
         <v>10</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
@@ -3835,13 +4093,15 @@
         <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3864,19 +4124,19 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y37" s="8">
         <v>0</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -3893,14 +4153,14 @@
         <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>93</v>
+        <v>49</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3925,14 +4185,14 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y38" s="12">
         <v>0</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -3946,13 +4206,13 @@
     </row>
     <row r="39" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3984,13 +4244,13 @@
         <v>10</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
@@ -4011,13 +4271,15 @@
         <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -4040,19 +4302,19 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y40" s="8">
         <v>0</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -4069,14 +4331,14 @@
         <v>31</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>49</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -4101,14 +4363,14 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y41" s="12">
         <v>0</v>
       </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
@@ -4125,14 +4387,14 @@
         <v>31</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -4157,14 +4419,14 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y42" s="12">
         <v>0</v>
       </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
@@ -4178,13 +4440,13 @@
     </row>
     <row r="43" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4216,13 +4478,13 @@
         <v>10</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
@@ -4243,14 +4505,14 @@
         <v>31</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>103</v>
+        <v>49</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -4275,14 +4537,14 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y44" s="12">
         <v>0</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -4299,14 +4561,14 @@
         <v>31</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>105</v>
+        <v>49</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -4331,14 +4593,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y45" s="12">
         <v>0</v>
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -4355,13 +4617,15 @@
         <v>40</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4384,19 +4648,19 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="X46" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y46" s="8">
         <v>0</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA46" s="10" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -4413,14 +4677,14 @@
         <v>31</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -4445,14 +4709,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y47" s="12">
         <v>0</v>
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -4466,13 +4730,13 @@
     </row>
     <row r="48" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4504,13 +4768,13 @@
         <v>10</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V48" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W48" s="8" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
@@ -4531,13 +4795,15 @@
         <v>40</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4560,19 +4826,19 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="X49" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y49" s="8">
         <v>0</v>
       </c>
       <c r="Z49" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA49" s="10" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
@@ -4589,14 +4855,14 @@
         <v>31</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>110</v>
+        <v>49</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -4621,14 +4887,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y50" s="12">
         <v>0</v>
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -4642,13 +4908,13 @@
     </row>
     <row r="51" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4680,13 +4946,13 @@
         <v>10</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
@@ -4707,13 +4973,15 @@
         <v>40</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4736,19 +5004,19 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="X52" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y52" s="8">
         <v>0</v>
       </c>
       <c r="Z52" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA52" s="10" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -4765,14 +5033,14 @@
         <v>31</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>113</v>
+        <v>49</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -4797,14 +5065,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y53" s="12">
         <v>0</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -4818,13 +5086,13 @@
     </row>
     <row r="54" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4856,13 +5124,13 @@
         <v>10</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W54" s="8" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
@@ -4880,16 +5148,18 @@
     </row>
     <row r="55" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4912,19 +5182,19 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="7" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="X55" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y55" s="8">
         <v>0</v>
       </c>
       <c r="Z55" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AA55" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -4938,13 +5208,13 @@
     </row>
     <row r="56" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4970,19 +5240,19 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="T56" s="8">
         <v>10</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W56" s="8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
@@ -5000,16 +5270,18 @@
     </row>
     <row r="57" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -5032,19 +5304,19 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="7" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="X57" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y57" s="8">
         <v>0</v>
       </c>
       <c r="Z57" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AA57" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -5058,13 +5330,13 @@
     </row>
     <row r="58" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -5090,19 +5362,19 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="8" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="T58" s="8">
         <v>10</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W58" s="8" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
@@ -5120,16 +5392,18 @@
     </row>
     <row r="59" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -5152,19 +5426,19 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="7" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="X59" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y59" s="8">
         <v>0</v>
       </c>
       <c r="Z59" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AA59" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -5178,13 +5452,13 @@
     </row>
     <row r="60" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -5210,19 +5484,19 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="8" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="T60" s="8">
         <v>10</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W60" s="8" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
@@ -5240,16 +5514,18 @@
     </row>
     <row r="61" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -5272,19 +5548,19 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="7" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="X61" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y61" s="8">
         <v>0</v>
       </c>
       <c r="Z61" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AA61" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -5298,13 +5574,13 @@
     </row>
     <row r="62" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -5330,19 +5606,19 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="8" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="T62" s="8">
         <v>10</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W62" s="8" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
@@ -5360,16 +5636,18 @@
     </row>
     <row r="63" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -5392,19 +5670,19 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="X63" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y63" s="8">
         <v>0</v>
       </c>
       <c r="Z63" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AA63" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
@@ -5418,13 +5696,13 @@
     </row>
     <row r="64" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -5450,19 +5728,19 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="8" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="T64" s="8">
         <v>10</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W64" s="8" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
@@ -5480,16 +5758,18 @@
     </row>
     <row r="65" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -5512,19 +5792,19 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="X65" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y65" s="8">
         <v>0</v>
       </c>
       <c r="Z65" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AA65" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -5538,13 +5818,13 @@
     </row>
     <row r="66" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5570,19 +5850,19 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="8" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="T66" s="8">
         <v>10</v>
       </c>
       <c r="U66" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W66" s="8" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
@@ -5600,16 +5880,18 @@
     </row>
     <row r="67" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -5632,19 +5914,19 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="7" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="X67" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y67" s="8">
         <v>0</v>
       </c>
       <c r="Z67" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AA67" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -5658,13 +5940,13 @@
     </row>
     <row r="68" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5690,19 +5972,19 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="8" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="T68" s="8">
         <v>10</v>
       </c>
       <c r="U68" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V68" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W68" s="8" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
@@ -5720,16 +6002,18 @@
     </row>
     <row r="69" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E69" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -5752,19 +6036,19 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="7" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="X69" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y69" s="8">
         <v>0</v>
       </c>
       <c r="Z69" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AA69" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -5778,13 +6062,13 @@
     </row>
     <row r="70" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5810,19 +6094,19 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="8" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="T70" s="8">
         <v>10</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
@@ -5840,16 +6124,18 @@
     </row>
     <row r="71" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -5872,19 +6158,19 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="7" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="X71" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y71" s="8">
         <v>0</v>
       </c>
       <c r="Z71" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AA71" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -5898,13 +6184,13 @@
     </row>
     <row r="72" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -5930,19 +6216,19 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="8" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="T72" s="8">
         <v>10</v>
       </c>
       <c r="U72" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W72" s="8" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
@@ -5960,10 +6246,10 @@
     </row>
     <row r="73" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5990,19 +6276,19 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="7" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="X73" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y73" s="12">
         <v>0</v>
       </c>
       <c r="Z73" s="3" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="AA73" s="13" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
@@ -6016,10 +6302,10 @@
     </row>
     <row r="74" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -6046,19 +6332,19 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="X74" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y74" s="12">
         <v>0</v>
       </c>
       <c r="Z74" s="3" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
@@ -6075,13 +6361,15 @@
         <v>40</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -6104,22 +6392,22 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="7" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="X75" s="8" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="Y75" s="8">
         <v>0</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="AA75" s="10" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="AB75" s="5" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
@@ -6135,15 +6423,19 @@
         <v>31</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="7"/>
@@ -6165,14 +6457,14 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y76" s="8">
         <v>0</v>
       </c>
       <c r="Z76" s="9"/>
       <c r="AA76" s="10" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
@@ -6189,15 +6481,19 @@
         <v>31</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E77" s="8"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="F77" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="7"/>
@@ -6219,14 +6515,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y77" s="8">
         <v>0</v>
       </c>
       <c r="Z77" s="9"/>
       <c r="AA77" s="10" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -6240,13 +6536,13 @@
     </row>
     <row r="78" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -6278,13 +6574,13 @@
         <v>10</v>
       </c>
       <c r="U78" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V78" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W78" s="8" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
@@ -6305,13 +6601,15 @@
         <v>40</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -6334,19 +6632,19 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="X79" s="8" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="Y79" s="8">
         <v>0</v>
       </c>
       <c r="Z79" s="9" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="AA79" s="10" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
@@ -6363,15 +6661,19 @@
         <v>31</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="7"/>
@@ -6393,14 +6695,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y80" s="8">
         <v>0</v>
       </c>
       <c r="Z80" s="9"/>
       <c r="AA80" s="10" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
@@ -6417,15 +6719,19 @@
         <v>31</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E81" s="8"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="F81" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="7"/>
@@ -6447,14 +6753,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y81" s="8">
         <v>0</v>
       </c>
       <c r="Z81" s="9"/>
       <c r="AA81" s="10" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
@@ -6468,13 +6774,13 @@
     </row>
     <row r="82" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -6506,13 +6812,13 @@
         <v>10</v>
       </c>
       <c r="U82" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V82" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W82" s="8" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
@@ -6533,13 +6839,15 @@
         <v>40</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -6562,19 +6870,19 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="7" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="X83" s="8" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="Y83" s="8">
         <v>0</v>
       </c>
       <c r="Z83" s="9" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="AA83" s="10" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
@@ -6591,15 +6899,19 @@
         <v>31</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="7"/>
@@ -6621,14 +6933,14 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y84" s="8">
         <v>0</v>
       </c>
       <c r="Z84" s="9"/>
       <c r="AA84" s="10" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
@@ -6645,15 +6957,19 @@
         <v>31</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E85" s="8"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="F85" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="7"/>
@@ -6675,14 +6991,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y85" s="8">
         <v>0</v>
       </c>
       <c r="Z85" s="9"/>
       <c r="AA85" s="10" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
@@ -6696,13 +7012,13 @@
     </row>
     <row r="86" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -6734,13 +7050,13 @@
         <v>10</v>
       </c>
       <c r="U86" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V86" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W86" s="8" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
@@ -6761,13 +7077,15 @@
         <v>40</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -6790,19 +7108,19 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="7" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="X87" s="8" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="Y87" s="8">
         <v>0</v>
       </c>
       <c r="Z87" s="9" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="AA87" s="10" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
@@ -6819,15 +7137,19 @@
         <v>31</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="7"/>
@@ -6849,14 +7171,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y88" s="8">
         <v>0</v>
       </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="10" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
@@ -6873,15 +7195,19 @@
         <v>31</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E89" s="8"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="F89" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="7"/>
@@ -6903,14 +7229,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y89" s="8">
         <v>0</v>
       </c>
       <c r="Z89" s="9"/>
       <c r="AA89" s="10" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
@@ -6924,13 +7250,13 @@
     </row>
     <row r="90" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -6962,13 +7288,13 @@
         <v>10</v>
       </c>
       <c r="U90" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V90" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W90" s="8" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
@@ -6989,13 +7315,15 @@
         <v>40</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -7018,19 +7346,19 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="7" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="X91" s="8" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="Y91" s="8">
         <v>0</v>
       </c>
       <c r="Z91" s="9" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="AA91" s="10" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
@@ -7047,15 +7375,19 @@
         <v>31</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="7"/>
@@ -7077,14 +7409,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y92" s="8">
         <v>0</v>
       </c>
       <c r="Z92" s="9"/>
       <c r="AA92" s="10" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
@@ -7101,15 +7433,19 @@
         <v>31</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E93" s="8"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="F93" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="7"/>
@@ -7131,14 +7467,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y93" s="8">
         <v>0</v>
       </c>
       <c r="Z93" s="9"/>
       <c r="AA93" s="10" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
@@ -7152,13 +7488,13 @@
     </row>
     <row r="94" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -7190,13 +7526,13 @@
         <v>10</v>
       </c>
       <c r="U94" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V94" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W94" s="8" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
@@ -7217,13 +7553,15 @@
         <v>40</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -7246,19 +7584,19 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="7" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="X95" s="8" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="Y95" s="8">
         <v>0</v>
       </c>
       <c r="Z95" s="9" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="AA95" s="10" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
@@ -7275,15 +7613,19 @@
         <v>31</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="7"/>
@@ -7305,14 +7647,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y96" s="8">
         <v>0</v>
       </c>
       <c r="Z96" s="9"/>
       <c r="AA96" s="10" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
@@ -7329,15 +7671,19 @@
         <v>31</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E97" s="8"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="F97" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="7"/>
@@ -7359,14 +7705,14 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y97" s="8">
         <v>0</v>
       </c>
       <c r="Z97" s="9"/>
       <c r="AA97" s="10" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
@@ -7380,13 +7726,13 @@
     </row>
     <row r="98" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -7418,13 +7764,13 @@
         <v>10</v>
       </c>
       <c r="U98" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V98" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W98" s="8" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
@@ -7442,14 +7788,14 @@
     </row>
     <row r="99" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="14" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -7474,22 +7820,22 @@
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
       <c r="W99" s="7" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="X99" s="8" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="Y99" s="8">
         <v>1</v>
       </c>
       <c r="Z99" s="9" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="AA99" s="10" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="AB99" s="5" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
@@ -7505,11 +7851,11 @@
         <v>31</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="14" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -7535,14 +7881,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y100" s="12">
         <v>0</v>
       </c>
       <c r="Z100" s="3"/>
       <c r="AA100" s="13" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
@@ -7559,11 +7905,11 @@
         <v>31</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="14" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -7589,14 +7935,14 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y101" s="12">
         <v>0</v>
       </c>
       <c r="Z101" s="3"/>
       <c r="AA101" s="13" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
@@ -7613,13 +7959,15 @@
         <v>31</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E102" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -7643,17 +7991,17 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y102" s="12">
         <v>0</v>
       </c>
       <c r="Z102" s="3"/>
       <c r="AA102" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB102" s="15" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
@@ -7669,13 +8017,15 @@
         <v>31</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E103" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -7699,14 +8049,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y103" s="12">
         <v>0</v>
       </c>
       <c r="Z103" s="3"/>
       <c r="AA103" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB103" s="15"/>
       <c r="AC103" s="5"/>
@@ -7723,13 +8073,15 @@
         <v>31</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E104" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -7753,14 +8105,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y104" s="12">
         <v>0</v>
       </c>
       <c r="Z104" s="3"/>
       <c r="AA104" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB104" s="15"/>
       <c r="AC104" s="5"/>
@@ -7777,13 +8129,15 @@
         <v>31</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E105" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -7807,14 +8161,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y105" s="12">
         <v>0</v>
       </c>
       <c r="Z105" s="3"/>
       <c r="AA105" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB105" s="15"/>
       <c r="AC105" s="5"/>
@@ -7831,13 +8185,15 @@
         <v>31</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E106" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -7861,14 +8217,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y106" s="12">
         <v>0</v>
       </c>
       <c r="Z106" s="3"/>
       <c r="AA106" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB106" s="15"/>
       <c r="AC106" s="5"/>
@@ -7885,13 +8241,15 @@
         <v>31</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E107" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -7915,14 +8273,14 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y107" s="12">
         <v>0</v>
       </c>
       <c r="Z107" s="3"/>
       <c r="AA107" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB107" s="15"/>
       <c r="AC107" s="5"/>
@@ -7939,13 +8297,15 @@
         <v>31</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E108" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -7969,14 +8329,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y108" s="12">
         <v>0</v>
       </c>
       <c r="Z108" s="3"/>
       <c r="AA108" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB108" s="15"/>
       <c r="AC108" s="5"/>
@@ -7993,13 +8353,15 @@
         <v>31</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E109" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -8023,14 +8385,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y109" s="12">
         <v>0</v>
       </c>
       <c r="Z109" s="3"/>
       <c r="AA109" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB109" s="15"/>
       <c r="AC109" s="5"/>
@@ -8047,13 +8409,15 @@
         <v>31</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E110" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -8077,14 +8441,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y110" s="12">
         <v>0</v>
       </c>
       <c r="Z110" s="3"/>
       <c r="AA110" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB110" s="15"/>
       <c r="AC110" s="5"/>
@@ -8101,15 +8465,21 @@
         <v>31</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="G111" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="7"/>
@@ -8131,14 +8501,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y111" s="12">
         <v>0</v>
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB111" s="15"/>
       <c r="AC111" s="5"/>
@@ -8155,15 +8525,21 @@
         <v>31</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="G112" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="7"/>
@@ -8185,14 +8561,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y112" s="12">
         <v>0</v>
       </c>
       <c r="Z112" s="3"/>
       <c r="AA112" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB112" s="15"/>
       <c r="AC112" s="5"/>
@@ -8209,15 +8585,21 @@
         <v>31</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="7"/>
@@ -8239,14 +8621,14 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y113" s="12">
         <v>0</v>
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB113" s="15"/>
       <c r="AC113" s="5"/>
@@ -8263,15 +8645,21 @@
         <v>31</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="G114" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="7"/>
@@ -8293,14 +8681,14 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y114" s="12">
         <v>0</v>
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB114" s="15"/>
       <c r="AC114" s="5"/>
@@ -8317,15 +8705,21 @@
         <v>31</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="G115" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="7"/>
@@ -8347,17 +8741,17 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y115" s="12">
         <v>0</v>
       </c>
       <c r="Z115" s="3"/>
       <c r="AA115" s="13" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="AB115" s="15" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
@@ -8373,15 +8767,21 @@
         <v>31</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="7"/>
@@ -8403,14 +8803,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y116" s="12">
         <v>0</v>
       </c>
       <c r="Z116" s="3"/>
       <c r="AA116" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB116" s="15"/>
       <c r="AC116" s="5"/>
@@ -8427,15 +8827,21 @@
         <v>31</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="7"/>
@@ -8457,14 +8863,14 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y117" s="12">
         <v>0</v>
       </c>
       <c r="Z117" s="3"/>
       <c r="AA117" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB117" s="15"/>
       <c r="AC117" s="5"/>
@@ -8481,15 +8887,21 @@
         <v>31</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="7"/>
@@ -8511,14 +8923,14 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y118" s="12">
         <v>0</v>
       </c>
       <c r="Z118" s="3"/>
       <c r="AA118" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB118" s="15"/>
       <c r="AC118" s="5"/>
@@ -8535,15 +8947,21 @@
         <v>31</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="7"/>
@@ -8565,14 +8983,14 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y119" s="12">
         <v>0</v>
       </c>
       <c r="Z119" s="3"/>
       <c r="AA119" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB119" s="15"/>
       <c r="AC119" s="5"/>
@@ -8589,15 +9007,21 @@
         <v>31</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="7"/>
@@ -8619,14 +9043,14 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y120" s="12">
         <v>0</v>
       </c>
       <c r="Z120" s="3"/>
       <c r="AA120" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB120" s="15"/>
       <c r="AC120" s="5"/>
@@ -8643,15 +9067,21 @@
         <v>31</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="7"/>
@@ -8673,17 +9103,17 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y121" s="12">
         <v>0</v>
       </c>
       <c r="Z121" s="3"/>
       <c r="AA121" s="13" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="AB121" s="15" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -8699,15 +9129,21 @@
         <v>31</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="7"/>
@@ -8729,14 +9165,14 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y122" s="12">
         <v>0</v>
       </c>
       <c r="Z122" s="3"/>
       <c r="AA122" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB122" s="15"/>
       <c r="AC122" s="5"/>
@@ -8753,13 +9189,15 @@
         <v>31</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E123" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -8783,14 +9221,14 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y123" s="12">
         <v>0</v>
       </c>
       <c r="Z123" s="3"/>
       <c r="AA123" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB123" s="15"/>
       <c r="AC123" s="5"/>
@@ -8807,13 +9245,15 @@
         <v>31</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E124" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -8837,14 +9277,14 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y124" s="12">
         <v>0</v>
       </c>
       <c r="Z124" s="3"/>
       <c r="AA124" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB124" s="15"/>
       <c r="AC124" s="5"/>
@@ -8861,13 +9301,15 @@
         <v>31</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E125" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -8891,14 +9333,14 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y125" s="12">
         <v>0</v>
       </c>
       <c r="Z125" s="3"/>
       <c r="AA125" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB125" s="15"/>
       <c r="AC125" s="5"/>
@@ -8915,13 +9357,15 @@
         <v>31</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E126" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -8945,14 +9389,14 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y126" s="12">
         <v>0</v>
       </c>
       <c r="Z126" s="3"/>
       <c r="AA126" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB126" s="15"/>
       <c r="AC126" s="5"/>
@@ -8969,13 +9413,15 @@
         <v>31</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E127" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -8999,14 +9445,14 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y127" s="12">
         <v>0</v>
       </c>
       <c r="Z127" s="3"/>
       <c r="AA127" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB127" s="15"/>
       <c r="AC127" s="5"/>
@@ -9023,13 +9469,15 @@
         <v>31</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E128" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -9053,14 +9501,14 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y128" s="12">
         <v>0</v>
       </c>
       <c r="Z128" s="3"/>
       <c r="AA128" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB128" s="15"/>
       <c r="AC128" s="5"/>
@@ -9077,13 +9525,15 @@
         <v>31</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E129" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -9107,14 +9557,14 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y129" s="12">
         <v>0</v>
       </c>
       <c r="Z129" s="3"/>
       <c r="AA129" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB129" s="15"/>
       <c r="AC129" s="5"/>
@@ -9131,13 +9581,15 @@
         <v>31</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E130" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
@@ -9161,14 +9613,14 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y130" s="12">
         <v>0</v>
       </c>
       <c r="Z130" s="3"/>
       <c r="AA130" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB130" s="15"/>
       <c r="AC130" s="5"/>
@@ -9185,15 +9637,21 @@
         <v>31</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="7"/>
@@ -9215,14 +9673,14 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y131" s="12">
         <v>0</v>
       </c>
       <c r="Z131" s="3"/>
       <c r="AA131" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB131" s="15"/>
       <c r="AC131" s="5"/>
@@ -9239,15 +9697,21 @@
         <v>31</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="7"/>
@@ -9269,17 +9733,17 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y132" s="12">
         <v>0</v>
       </c>
       <c r="Z132" s="3"/>
       <c r="AA132" s="13" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="AB132" s="15" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
@@ -9295,15 +9759,21 @@
         <v>31</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="7"/>
@@ -9325,14 +9795,14 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y133" s="12">
         <v>0</v>
       </c>
       <c r="Z133" s="3"/>
       <c r="AA133" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB133" s="15"/>
       <c r="AC133" s="5"/>
@@ -9349,15 +9819,21 @@
         <v>31</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="7"/>
@@ -9379,14 +9855,14 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y134" s="12">
         <v>0</v>
       </c>
       <c r="Z134" s="3"/>
       <c r="AA134" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB134" s="15"/>
       <c r="AC134" s="5"/>
@@ -9403,15 +9879,21 @@
         <v>31</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="7"/>
@@ -9433,17 +9915,17 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y135" s="12">
         <v>0</v>
       </c>
       <c r="Z135" s="3"/>
       <c r="AA135" s="13" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="AB135" s="15" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
@@ -9459,15 +9941,21 @@
         <v>31</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="7"/>
@@ -9489,17 +9977,17 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y136" s="12">
         <v>0</v>
       </c>
       <c r="Z136" s="3"/>
       <c r="AA136" s="13" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="AB136" s="15" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="AC136" s="5"/>
       <c r="AD136" s="5"/>
@@ -9515,15 +10003,21 @@
         <v>31</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="7"/>
@@ -9545,14 +10039,14 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y137" s="12">
         <v>0</v>
       </c>
       <c r="Z137" s="3"/>
       <c r="AA137" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB137" s="15"/>
       <c r="AC137" s="5"/>
@@ -9569,15 +10063,21 @@
         <v>31</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="7"/>
@@ -9599,14 +10099,14 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y138" s="12">
         <v>0</v>
       </c>
       <c r="Z138" s="3"/>
       <c r="AA138" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB138" s="15"/>
       <c r="AC138" s="5"/>
@@ -9623,15 +10123,21 @@
         <v>31</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="7"/>
@@ -9653,14 +10159,14 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y139" s="12">
         <v>0</v>
       </c>
       <c r="Z139" s="3"/>
       <c r="AA139" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB139" s="15"/>
       <c r="AC139" s="5"/>
@@ -9677,15 +10183,21 @@
         <v>31</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="7"/>
@@ -9707,17 +10219,17 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y140" s="12">
         <v>0</v>
       </c>
       <c r="Z140" s="3"/>
       <c r="AA140" s="13" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="AB140" s="15" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
@@ -9733,15 +10245,21 @@
         <v>31</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="7"/>
@@ -9763,14 +10281,14 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y141" s="12">
         <v>0</v>
       </c>
       <c r="Z141" s="3"/>
       <c r="AA141" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB141" s="15"/>
       <c r="AC141" s="5"/>
@@ -9787,15 +10305,21 @@
         <v>31</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="7"/>
@@ -9817,14 +10341,14 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y142" s="12">
         <v>0</v>
       </c>
       <c r="Z142" s="3"/>
       <c r="AA142" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB142" s="15"/>
       <c r="AC142" s="5"/>
@@ -9841,15 +10365,21 @@
         <v>31</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="7"/>
@@ -9871,14 +10401,14 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y143" s="12">
         <v>0</v>
       </c>
       <c r="Z143" s="3"/>
       <c r="AA143" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB143" s="15"/>
       <c r="AC143" s="5"/>
@@ -9895,15 +10425,21 @@
         <v>31</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="7"/>
@@ -9925,14 +10461,14 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y144" s="12">
         <v>0</v>
       </c>
       <c r="Z144" s="3"/>
       <c r="AA144" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB144" s="15"/>
       <c r="AC144" s="5"/>
@@ -9949,15 +10485,21 @@
         <v>31</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="7"/>
@@ -9979,14 +10521,14 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y145" s="12">
         <v>0</v>
       </c>
       <c r="Z145" s="3"/>
       <c r="AA145" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB145" s="15"/>
       <c r="AC145" s="5"/>
@@ -10003,15 +10545,21 @@
         <v>31</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="7"/>
@@ -10033,17 +10581,17 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y146" s="12">
         <v>0</v>
       </c>
       <c r="Z146" s="3"/>
       <c r="AA146" s="13" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="AB146" s="15" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="AC146" s="5"/>
       <c r="AD146" s="5"/>
@@ -10059,15 +10607,21 @@
         <v>31</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="7"/>
@@ -10089,14 +10643,14 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y147" s="12">
         <v>0</v>
       </c>
       <c r="Z147" s="3"/>
       <c r="AA147" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB147" s="15"/>
       <c r="AC147" s="5"/>
@@ -10113,15 +10667,21 @@
         <v>31</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="7"/>
@@ -10143,14 +10703,14 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y148" s="12">
         <v>0</v>
       </c>
       <c r="Z148" s="3"/>
       <c r="AA148" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB148" s="15"/>
       <c r="AC148" s="5"/>
@@ -10167,15 +10727,21 @@
         <v>31</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="7"/>
@@ -10197,14 +10763,14 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y149" s="12">
         <v>0</v>
       </c>
       <c r="Z149" s="3"/>
       <c r="AA149" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB149" s="15"/>
       <c r="AC149" s="5"/>
@@ -10221,15 +10787,21 @@
         <v>31</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="7"/>
@@ -10251,14 +10823,14 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y150" s="12">
         <v>0</v>
       </c>
       <c r="Z150" s="3"/>
       <c r="AA150" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB150" s="15"/>
       <c r="AC150" s="5"/>
@@ -10275,15 +10847,21 @@
         <v>31</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="7"/>
@@ -10305,17 +10883,17 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y151" s="12">
         <v>0</v>
       </c>
       <c r="Z151" s="3"/>
       <c r="AA151" s="13" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="AB151" s="15" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="AC151" s="5"/>
       <c r="AD151" s="5"/>
@@ -10331,15 +10909,21 @@
         <v>31</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="7"/>
@@ -10361,14 +10945,14 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y152" s="12">
         <v>0</v>
       </c>
       <c r="Z152" s="3"/>
       <c r="AA152" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB152" s="15"/>
       <c r="AC152" s="5"/>
@@ -10385,15 +10969,21 @@
         <v>31</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="7"/>
@@ -10415,14 +11005,14 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y153" s="12">
         <v>0</v>
       </c>
       <c r="Z153" s="3"/>
       <c r="AA153" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB153" s="15"/>
       <c r="AC153" s="5"/>
@@ -10439,15 +11029,21 @@
         <v>31</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="7"/>
@@ -10469,17 +11065,17 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y154" s="12">
         <v>0</v>
       </c>
       <c r="Z154" s="3"/>
       <c r="AA154" s="13" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="AB154" s="15" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="AC154" s="5"/>
       <c r="AD154" s="5"/>
@@ -10495,15 +11091,21 @@
         <v>31</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="7"/>
@@ -10525,14 +11127,14 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
       <c r="X155" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y155" s="12">
         <v>0</v>
       </c>
       <c r="Z155" s="3"/>
       <c r="AA155" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB155" s="15"/>
       <c r="AC155" s="5"/>
@@ -10549,15 +11151,21 @@
         <v>31</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="7"/>
@@ -10579,14 +11187,14 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y156" s="12">
         <v>0</v>
       </c>
       <c r="Z156" s="3"/>
       <c r="AA156" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB156" s="15"/>
       <c r="AC156" s="5"/>
@@ -10603,15 +11211,21 @@
         <v>31</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="7"/>
@@ -10633,14 +11247,14 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y157" s="12">
         <v>0</v>
       </c>
       <c r="Z157" s="3"/>
       <c r="AA157" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB157" s="15"/>
       <c r="AC157" s="5"/>
@@ -10657,15 +11271,21 @@
         <v>31</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="7"/>
@@ -10687,14 +11307,14 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y158" s="12">
         <v>0</v>
       </c>
       <c r="Z158" s="3"/>
       <c r="AA158" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB158" s="15"/>
       <c r="AC158" s="5"/>
@@ -10711,15 +11331,21 @@
         <v>31</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="7"/>
@@ -10741,17 +11367,17 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y159" s="12">
         <v>0</v>
       </c>
       <c r="Z159" s="3"/>
       <c r="AA159" s="13" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="AB159" s="15" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="AC159" s="5"/>
       <c r="AD159" s="5"/>
@@ -10767,15 +11393,21 @@
         <v>31</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="7"/>
@@ -10797,14 +11429,14 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
       <c r="X160" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y160" s="12">
         <v>0</v>
       </c>
       <c r="Z160" s="3"/>
       <c r="AA160" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB160" s="15"/>
       <c r="AC160" s="5"/>
@@ -10821,15 +11453,21 @@
         <v>31</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="7"/>
@@ -10851,14 +11489,14 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
       <c r="X161" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y161" s="12">
         <v>0</v>
       </c>
       <c r="Z161" s="3"/>
       <c r="AA161" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB161" s="15"/>
       <c r="AC161" s="5"/>
@@ -10875,15 +11513,21 @@
         <v>31</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="7"/>
@@ -10905,14 +11549,14 @@
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
       <c r="X162" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y162" s="12">
         <v>0</v>
       </c>
       <c r="Z162" s="3"/>
       <c r="AA162" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB162" s="15"/>
       <c r="AC162" s="5"/>
@@ -10929,15 +11573,21 @@
         <v>31</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="7"/>
@@ -10959,17 +11609,17 @@
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
       <c r="X163" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y163" s="12">
         <v>0</v>
       </c>
       <c r="Z163" s="3"/>
       <c r="AA163" s="13" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="AB163" s="15" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="AC163" s="5"/>
       <c r="AD163" s="5"/>
@@ -10985,15 +11635,21 @@
         <v>31</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="7"/>
@@ -11015,14 +11671,14 @@
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
       <c r="X164" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y164" s="12">
         <v>0</v>
       </c>
       <c r="Z164" s="3"/>
       <c r="AA164" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB164" s="15"/>
       <c r="AC164" s="5"/>
@@ -11039,13 +11695,15 @@
         <v>31</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E165" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -11069,14 +11727,14 @@
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
       <c r="X165" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y165" s="12">
         <v>0</v>
       </c>
       <c r="Z165" s="3"/>
       <c r="AA165" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB165" s="15"/>
       <c r="AC165" s="5"/>
@@ -11093,13 +11751,15 @@
         <v>31</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E166" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
@@ -11123,14 +11783,14 @@
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
       <c r="X166" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y166" s="12">
         <v>0</v>
       </c>
       <c r="Z166" s="3"/>
       <c r="AA166" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB166" s="15"/>
       <c r="AC166" s="5"/>
@@ -11147,13 +11807,15 @@
         <v>31</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E167" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -11177,14 +11839,14 @@
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
       <c r="X167" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y167" s="12">
         <v>0</v>
       </c>
       <c r="Z167" s="3"/>
       <c r="AA167" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB167" s="15"/>
       <c r="AC167" s="5"/>
@@ -11201,13 +11863,15 @@
         <v>31</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E168" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
@@ -11231,14 +11895,14 @@
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
       <c r="X168" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y168" s="12">
         <v>0</v>
       </c>
       <c r="Z168" s="3"/>
       <c r="AA168" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB168" s="15"/>
       <c r="AC168" s="5"/>
@@ -11255,13 +11919,15 @@
         <v>31</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E169" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
@@ -11285,14 +11951,14 @@
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
       <c r="X169" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y169" s="12">
         <v>0</v>
       </c>
       <c r="Z169" s="3"/>
       <c r="AA169" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB169" s="15"/>
       <c r="AC169" s="5"/>
@@ -11309,13 +11975,15 @@
         <v>31</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E170" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
@@ -11339,14 +12007,14 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
       <c r="X170" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y170" s="12">
         <v>0</v>
       </c>
       <c r="Z170" s="3"/>
       <c r="AA170" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB170" s="15"/>
       <c r="AC170" s="5"/>
@@ -11363,13 +12031,15 @@
         <v>31</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E171" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -11393,14 +12063,14 @@
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
       <c r="X171" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y171" s="12">
         <v>0</v>
       </c>
       <c r="Z171" s="3"/>
       <c r="AA171" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB171" s="15"/>
       <c r="AC171" s="5"/>
@@ -11417,13 +12087,15 @@
         <v>31</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E172" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -11447,14 +12119,14 @@
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
       <c r="X172" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y172" s="12">
         <v>0</v>
       </c>
       <c r="Z172" s="3"/>
       <c r="AA172" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB172" s="15"/>
       <c r="AC172" s="5"/>
@@ -11471,13 +12143,15 @@
         <v>31</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E173" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
@@ -11501,14 +12175,14 @@
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
       <c r="X173" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y173" s="12">
         <v>0</v>
       </c>
       <c r="Z173" s="3"/>
       <c r="AA173" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB173" s="15"/>
       <c r="AC173" s="5"/>
@@ -11525,13 +12199,15 @@
         <v>31</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E174" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -11555,14 +12231,14 @@
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
       <c r="X174" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y174" s="12">
         <v>0</v>
       </c>
       <c r="Z174" s="3"/>
       <c r="AA174" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB174" s="15"/>
       <c r="AC174" s="5"/>
@@ -11579,13 +12255,15 @@
         <v>31</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E175" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -11609,14 +12287,14 @@
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
       <c r="X175" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y175" s="12">
         <v>0</v>
       </c>
       <c r="Z175" s="3"/>
       <c r="AA175" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB175" s="15"/>
       <c r="AC175" s="5"/>
@@ -11633,13 +12311,15 @@
         <v>31</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E176" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -11663,14 +12343,14 @@
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
       <c r="X176" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y176" s="12">
         <v>0</v>
       </c>
       <c r="Z176" s="3"/>
       <c r="AA176" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB176" s="15"/>
       <c r="AC176" s="5"/>
@@ -11687,13 +12367,15 @@
         <v>31</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E177" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
@@ -11717,14 +12399,14 @@
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
       <c r="X177" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y177" s="12">
         <v>0</v>
       </c>
       <c r="Z177" s="3"/>
       <c r="AA177" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB177" s="15"/>
       <c r="AC177" s="5"/>
@@ -11741,13 +12423,15 @@
         <v>31</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E178" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
@@ -11771,14 +12455,14 @@
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
       <c r="X178" s="12" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="Y178" s="12">
         <v>0</v>
       </c>
       <c r="Z178" s="3"/>
       <c r="AA178" s="13" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AB178" s="15"/>
       <c r="AC178" s="5"/>
@@ -11795,11 +12479,11 @@
         <v>31</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -11825,14 +12509,14 @@
       <c r="V179" s="4"/>
       <c r="W179" s="4"/>
       <c r="X179" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y179" s="12">
         <v>0</v>
       </c>
       <c r="Z179" s="3"/>
       <c r="AA179" s="13" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="AB179" s="5"/>
       <c r="AC179" s="5"/>
@@ -11849,11 +12533,11 @@
         <v>31</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -11879,14 +12563,14 @@
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
       <c r="X180" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y180" s="12">
         <v>0</v>
       </c>
       <c r="Z180" s="3"/>
       <c r="AA180" s="13" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="AB180" s="5"/>
       <c r="AC180" s="5"/>
@@ -11903,11 +12587,11 @@
         <v>31</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -11933,14 +12617,14 @@
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
       <c r="X181" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y181" s="12">
         <v>0</v>
       </c>
       <c r="Z181" s="3"/>
       <c r="AA181" s="13" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="AB181" s="5"/>
       <c r="AC181" s="5"/>
@@ -11957,11 +12641,11 @@
         <v>31</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -11987,14 +12671,14 @@
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
       <c r="X182" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y182" s="12">
         <v>0</v>
       </c>
       <c r="Z182" s="3"/>
       <c r="AA182" s="13" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="AB182" s="5"/>
       <c r="AC182" s="5"/>
@@ -12008,14 +12692,14 @@
     </row>
     <row r="183" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -12044,7 +12728,7 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
       <c r="AA183" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB183" s="5"/>
       <c r="AC183" s="5"/>
@@ -12058,14 +12742,14 @@
     </row>
     <row r="184" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -12094,7 +12778,7 @@
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
       <c r="AA184" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB184" s="5"/>
       <c r="AC184" s="5"/>
@@ -12108,14 +12792,14 @@
     </row>
     <row r="185" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -12144,7 +12828,7 @@
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
       <c r="AA185" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB185" s="5"/>
       <c r="AC185" s="5"/>
@@ -12158,14 +12842,14 @@
     </row>
     <row r="186" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -12194,7 +12878,7 @@
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
       <c r="AA186" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB186" s="5"/>
       <c r="AC186" s="5"/>
@@ -12208,14 +12892,14 @@
     </row>
     <row r="187" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -12244,7 +12928,7 @@
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
       <c r="AA187" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB187" s="5"/>
       <c r="AC187" s="5"/>
@@ -12258,14 +12942,14 @@
     </row>
     <row r="188" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -12294,7 +12978,7 @@
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
       <c r="AA188" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB188" s="5"/>
       <c r="AC188" s="5"/>
@@ -12308,14 +12992,14 @@
     </row>
     <row r="189" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -12344,7 +13028,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
       <c r="AA189" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB189" s="5"/>
       <c r="AC189" s="5"/>
@@ -12358,14 +13042,14 @@
     </row>
     <row r="190" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -12394,7 +13078,7 @@
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
       <c r="AA190" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB190" s="5"/>
       <c r="AC190" s="5"/>
@@ -12408,14 +13092,14 @@
     </row>
     <row r="191" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -12444,7 +13128,7 @@
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
       <c r="AA191" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB191" s="5"/>
       <c r="AC191" s="5"/>
@@ -12458,14 +13142,14 @@
     </row>
     <row r="192" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="14" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -12494,7 +13178,7 @@
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
       <c r="AA192" s="10" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AB192" s="5"/>
       <c r="AC192" s="5"/>
@@ -12664,35 +13348,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>292</v>
+        <v>189</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>292</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -12725,21 +13409,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH67_Shin-Nozaki_UIList.xlsx
+++ b/exe/TSV/Excel/TH67_Shin-Nozaki_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812D13BB-844C-446B-B475-8DCD844581A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B89EA15-96D7-44E5-A559-684A3071A367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="3975" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="4365" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH67_新野崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="390">
   <si>
     <t>Type</t>
   </si>
@@ -1170,6 +1170,9 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
+    <t>TH67_81</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -1533,24 +1536,42 @@
     <t>TH66S_5LT</t>
   </si>
   <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>状態表示灯</t>
+  </si>
+  <si>
+    <t>TH67_W-FAILURE</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
-    <t>状態表示灯</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/R.png</t>
+    <t>TH67_PWR-FAILURE</t>
   </si>
   <si>
     <t>CTC故障_R</t>
   </si>
   <si>
+    <t>TH67_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>鎖錠60秒_R</t>
   </si>
   <si>
+    <t>TH67_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠30秒_R</t>
   </si>
   <si>
+    <t>TH67_30TEK</t>
+  </si>
+  <si>
     <t>Retsuban</t>
   </si>
   <si>
@@ -1560,34 +1581,64 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH67_TTC_Up2</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番新野崎上り第1接近</t>
   </si>
   <si>
+    <t>TH67_TTC_Up1</t>
+  </si>
+  <si>
     <t>列番新野崎1番線</t>
   </si>
   <si>
+    <t>TH67_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番新野崎2番線</t>
   </si>
   <si>
+    <t>TH67_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番新野崎3番線</t>
   </si>
   <si>
+    <t>TH67_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番新野崎4番線</t>
   </si>
   <si>
+    <t>TH67_TTC_Track4</t>
+  </si>
+  <si>
     <t>列番新野崎引上線</t>
   </si>
   <si>
+    <t>TH67_TTC_Track5</t>
+  </si>
+  <si>
     <t>列番新野崎下り場内</t>
   </si>
   <si>
+    <t>TH67_TTC_DownArr1</t>
+  </si>
+  <si>
     <t>列番新野崎下り第1接近</t>
   </si>
   <si>
+    <t>TH67_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番新野崎下り第2接近</t>
+  </si>
+  <si>
+    <t>TH67_TTC_Down2</t>
   </si>
   <si>
     <t>Button</t>
@@ -1928,7 +1979,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ195"/>
+  <dimension ref="A1:AJ196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3093,9 +3144,7 @@
       <c r="D20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -3447,9 +3496,7 @@
       <c r="D26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -7797,7 +7844,9 @@
       <c r="D99" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -7823,19 +7872,19 @@
         <v>228</v>
       </c>
       <c r="X99" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y99" s="8">
         <v>1</v>
       </c>
       <c r="Z99" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA99" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AB99" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
@@ -7851,13 +7900,15 @@
         <v>31</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E100" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -7905,13 +7956,15 @@
         <v>31</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E101" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -7959,14 +8012,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7991,17 +8044,17 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y102" s="12">
         <v>0</v>
       </c>
       <c r="Z102" s="3"/>
       <c r="AA102" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB102" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
@@ -8017,14 +8070,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -8049,14 +8102,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y103" s="12">
         <v>0</v>
       </c>
       <c r="Z103" s="3"/>
       <c r="AA103" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB103" s="15"/>
       <c r="AC103" s="5"/>
@@ -8073,14 +8126,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -8105,14 +8158,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y104" s="12">
         <v>0</v>
       </c>
       <c r="Z104" s="3"/>
       <c r="AA104" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB104" s="15"/>
       <c r="AC104" s="5"/>
@@ -8129,14 +8182,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -8161,14 +8214,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y105" s="12">
         <v>0</v>
       </c>
       <c r="Z105" s="3"/>
       <c r="AA105" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB105" s="15"/>
       <c r="AC105" s="5"/>
@@ -8185,14 +8238,14 @@
         <v>31</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -8217,14 +8270,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y106" s="12">
         <v>0</v>
       </c>
       <c r="Z106" s="3"/>
       <c r="AA106" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB106" s="15"/>
       <c r="AC106" s="5"/>
@@ -8241,14 +8294,14 @@
         <v>31</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -8273,14 +8326,14 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y107" s="12">
         <v>0</v>
       </c>
       <c r="Z107" s="3"/>
       <c r="AA107" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB107" s="15"/>
       <c r="AC107" s="5"/>
@@ -8297,14 +8350,14 @@
         <v>31</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -8329,14 +8382,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y108" s="12">
         <v>0</v>
       </c>
       <c r="Z108" s="3"/>
       <c r="AA108" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB108" s="15"/>
       <c r="AC108" s="5"/>
@@ -8353,14 +8406,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8385,14 +8438,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y109" s="12">
         <v>0</v>
       </c>
       <c r="Z109" s="3"/>
       <c r="AA109" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB109" s="15"/>
       <c r="AC109" s="5"/>
@@ -8409,14 +8462,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8441,14 +8494,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y110" s="12">
         <v>0</v>
       </c>
       <c r="Z110" s="3"/>
       <c r="AA110" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB110" s="15"/>
       <c r="AC110" s="5"/>
@@ -8465,14 +8518,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>185</v>
@@ -8501,14 +8554,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y111" s="12">
         <v>0</v>
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB111" s="15"/>
       <c r="AC111" s="5"/>
@@ -8525,14 +8578,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>185</v>
@@ -8561,14 +8614,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y112" s="12">
         <v>0</v>
       </c>
       <c r="Z112" s="3"/>
       <c r="AA112" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB112" s="15"/>
       <c r="AC112" s="5"/>
@@ -8585,14 +8638,14 @@
         <v>31</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>185</v>
@@ -8621,14 +8674,14 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y113" s="12">
         <v>0</v>
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB113" s="15"/>
       <c r="AC113" s="5"/>
@@ -8645,14 +8698,14 @@
         <v>31</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>185</v>
@@ -8681,14 +8734,14 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y114" s="12">
         <v>0</v>
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB114" s="15"/>
       <c r="AC114" s="5"/>
@@ -8705,14 +8758,14 @@
         <v>31</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>185</v>
@@ -8741,17 +8794,17 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y115" s="12">
         <v>0</v>
       </c>
       <c r="Z115" s="3"/>
       <c r="AA115" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB115" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
@@ -8767,14 +8820,14 @@
         <v>31</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>185</v>
@@ -8803,14 +8856,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y116" s="12">
         <v>0</v>
       </c>
       <c r="Z116" s="3"/>
       <c r="AA116" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB116" s="15"/>
       <c r="AC116" s="5"/>
@@ -8827,14 +8880,14 @@
         <v>31</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>196</v>
@@ -8863,14 +8916,14 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y117" s="12">
         <v>0</v>
       </c>
       <c r="Z117" s="3"/>
       <c r="AA117" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB117" s="15"/>
       <c r="AC117" s="5"/>
@@ -8887,14 +8940,14 @@
         <v>31</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>196</v>
@@ -8923,14 +8976,14 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y118" s="12">
         <v>0</v>
       </c>
       <c r="Z118" s="3"/>
       <c r="AA118" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB118" s="15"/>
       <c r="AC118" s="5"/>
@@ -8947,14 +9000,14 @@
         <v>31</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>196</v>
@@ -8983,14 +9036,14 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y119" s="12">
         <v>0</v>
       </c>
       <c r="Z119" s="3"/>
       <c r="AA119" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB119" s="15"/>
       <c r="AC119" s="5"/>
@@ -9007,14 +9060,14 @@
         <v>31</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>196</v>
@@ -9043,14 +9096,14 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y120" s="12">
         <v>0</v>
       </c>
       <c r="Z120" s="3"/>
       <c r="AA120" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB120" s="15"/>
       <c r="AC120" s="5"/>
@@ -9067,14 +9120,14 @@
         <v>31</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>196</v>
@@ -9103,17 +9156,17 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y121" s="12">
         <v>0</v>
       </c>
       <c r="Z121" s="3"/>
       <c r="AA121" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB121" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -9129,14 +9182,14 @@
         <v>31</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>196</v>
@@ -9165,14 +9218,14 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y122" s="12">
         <v>0</v>
       </c>
       <c r="Z122" s="3"/>
       <c r="AA122" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB122" s="15"/>
       <c r="AC122" s="5"/>
@@ -9189,14 +9242,14 @@
         <v>31</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -9221,14 +9274,14 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y123" s="12">
         <v>0</v>
       </c>
       <c r="Z123" s="3"/>
       <c r="AA123" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB123" s="15"/>
       <c r="AC123" s="5"/>
@@ -9245,14 +9298,14 @@
         <v>31</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -9277,14 +9330,14 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y124" s="12">
         <v>0</v>
       </c>
       <c r="Z124" s="3"/>
       <c r="AA124" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB124" s="15"/>
       <c r="AC124" s="5"/>
@@ -9301,14 +9354,14 @@
         <v>31</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -9333,14 +9386,14 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y125" s="12">
         <v>0</v>
       </c>
       <c r="Z125" s="3"/>
       <c r="AA125" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB125" s="15"/>
       <c r="AC125" s="5"/>
@@ -9357,14 +9410,14 @@
         <v>31</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -9389,14 +9442,14 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y126" s="12">
         <v>0</v>
       </c>
       <c r="Z126" s="3"/>
       <c r="AA126" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB126" s="15"/>
       <c r="AC126" s="5"/>
@@ -9413,14 +9466,14 @@
         <v>31</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -9445,14 +9498,14 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y127" s="12">
         <v>0</v>
       </c>
       <c r="Z127" s="3"/>
       <c r="AA127" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB127" s="15"/>
       <c r="AC127" s="5"/>
@@ -9469,14 +9522,14 @@
         <v>31</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
@@ -9501,14 +9554,14 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y128" s="12">
         <v>0</v>
       </c>
       <c r="Z128" s="3"/>
       <c r="AA128" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB128" s="15"/>
       <c r="AC128" s="5"/>
@@ -9525,14 +9578,14 @@
         <v>31</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -9557,14 +9610,14 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y129" s="12">
         <v>0</v>
       </c>
       <c r="Z129" s="3"/>
       <c r="AA129" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB129" s="15"/>
       <c r="AC129" s="5"/>
@@ -9581,14 +9634,14 @@
         <v>31</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
@@ -9613,14 +9666,14 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y130" s="12">
         <v>0</v>
       </c>
       <c r="Z130" s="3"/>
       <c r="AA130" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB130" s="15"/>
       <c r="AC130" s="5"/>
@@ -9637,14 +9690,14 @@
         <v>31</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>203</v>
@@ -9673,14 +9726,14 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y131" s="12">
         <v>0</v>
       </c>
       <c r="Z131" s="3"/>
       <c r="AA131" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB131" s="15"/>
       <c r="AC131" s="5"/>
@@ -9697,14 +9750,14 @@
         <v>31</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>203</v>
@@ -9733,17 +9786,17 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y132" s="12">
         <v>0</v>
       </c>
       <c r="Z132" s="3"/>
       <c r="AA132" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB132" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
@@ -9759,14 +9812,14 @@
         <v>31</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>203</v>
@@ -9795,14 +9848,14 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y133" s="12">
         <v>0</v>
       </c>
       <c r="Z133" s="3"/>
       <c r="AA133" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB133" s="15"/>
       <c r="AC133" s="5"/>
@@ -9819,14 +9872,14 @@
         <v>31</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>203</v>
@@ -9855,14 +9908,14 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y134" s="12">
         <v>0</v>
       </c>
       <c r="Z134" s="3"/>
       <c r="AA134" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB134" s="15"/>
       <c r="AC134" s="5"/>
@@ -9879,14 +9932,14 @@
         <v>31</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>203</v>
@@ -9915,17 +9968,17 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y135" s="12">
         <v>0</v>
       </c>
       <c r="Z135" s="3"/>
       <c r="AA135" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB135" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
@@ -9941,14 +9994,14 @@
         <v>31</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>203</v>
@@ -9977,17 +10030,17 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y136" s="12">
         <v>0</v>
       </c>
       <c r="Z136" s="3"/>
       <c r="AA136" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB136" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC136" s="5"/>
       <c r="AD136" s="5"/>
@@ -10003,14 +10056,14 @@
         <v>31</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>203</v>
@@ -10039,14 +10092,14 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y137" s="12">
         <v>0</v>
       </c>
       <c r="Z137" s="3"/>
       <c r="AA137" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB137" s="15"/>
       <c r="AC137" s="5"/>
@@ -10063,14 +10116,14 @@
         <v>31</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>203</v>
@@ -10099,14 +10152,14 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y138" s="12">
         <v>0</v>
       </c>
       <c r="Z138" s="3"/>
       <c r="AA138" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB138" s="15"/>
       <c r="AC138" s="5"/>
@@ -10123,14 +10176,14 @@
         <v>31</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>203</v>
@@ -10159,14 +10212,14 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y139" s="12">
         <v>0</v>
       </c>
       <c r="Z139" s="3"/>
       <c r="AA139" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB139" s="15"/>
       <c r="AC139" s="5"/>
@@ -10183,14 +10236,14 @@
         <v>31</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>203</v>
@@ -10219,17 +10272,17 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y140" s="12">
         <v>0</v>
       </c>
       <c r="Z140" s="3"/>
       <c r="AA140" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB140" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
@@ -10245,14 +10298,14 @@
         <v>31</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>203</v>
@@ -10281,14 +10334,14 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y141" s="12">
         <v>0</v>
       </c>
       <c r="Z141" s="3"/>
       <c r="AA141" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB141" s="15"/>
       <c r="AC141" s="5"/>
@@ -10305,14 +10358,14 @@
         <v>31</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>210</v>
@@ -10341,14 +10394,14 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y142" s="12">
         <v>0</v>
       </c>
       <c r="Z142" s="3"/>
       <c r="AA142" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB142" s="15"/>
       <c r="AC142" s="5"/>
@@ -10365,14 +10418,14 @@
         <v>31</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>210</v>
@@ -10401,14 +10454,14 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y143" s="12">
         <v>0</v>
       </c>
       <c r="Z143" s="3"/>
       <c r="AA143" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB143" s="15"/>
       <c r="AC143" s="5"/>
@@ -10425,14 +10478,14 @@
         <v>31</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>210</v>
@@ -10461,14 +10514,14 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y144" s="12">
         <v>0</v>
       </c>
       <c r="Z144" s="3"/>
       <c r="AA144" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB144" s="15"/>
       <c r="AC144" s="5"/>
@@ -10485,14 +10538,14 @@
         <v>31</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>210</v>
@@ -10521,14 +10574,14 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y145" s="12">
         <v>0</v>
       </c>
       <c r="Z145" s="3"/>
       <c r="AA145" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB145" s="15"/>
       <c r="AC145" s="5"/>
@@ -10545,14 +10598,14 @@
         <v>31</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>210</v>
@@ -10581,17 +10634,17 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y146" s="12">
         <v>0</v>
       </c>
       <c r="Z146" s="3"/>
       <c r="AA146" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB146" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC146" s="5"/>
       <c r="AD146" s="5"/>
@@ -10607,14 +10660,14 @@
         <v>31</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>210</v>
@@ -10643,14 +10696,14 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y147" s="12">
         <v>0</v>
       </c>
       <c r="Z147" s="3"/>
       <c r="AA147" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB147" s="15"/>
       <c r="AC147" s="5"/>
@@ -10667,14 +10720,14 @@
         <v>31</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>217</v>
@@ -10703,14 +10756,14 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y148" s="12">
         <v>0</v>
       </c>
       <c r="Z148" s="3"/>
       <c r="AA148" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB148" s="15"/>
       <c r="AC148" s="5"/>
@@ -10727,14 +10780,14 @@
         <v>31</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>217</v>
@@ -10763,14 +10816,14 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y149" s="12">
         <v>0</v>
       </c>
       <c r="Z149" s="3"/>
       <c r="AA149" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB149" s="15"/>
       <c r="AC149" s="5"/>
@@ -10787,14 +10840,14 @@
         <v>31</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>217</v>
@@ -10823,14 +10876,14 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y150" s="12">
         <v>0</v>
       </c>
       <c r="Z150" s="3"/>
       <c r="AA150" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB150" s="15"/>
       <c r="AC150" s="5"/>
@@ -10847,14 +10900,14 @@
         <v>31</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>217</v>
@@ -10883,17 +10936,17 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y151" s="12">
         <v>0</v>
       </c>
       <c r="Z151" s="3"/>
       <c r="AA151" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB151" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC151" s="5"/>
       <c r="AD151" s="5"/>
@@ -10909,14 +10962,14 @@
         <v>31</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>217</v>
@@ -10945,14 +10998,14 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y152" s="12">
         <v>0</v>
       </c>
       <c r="Z152" s="3"/>
       <c r="AA152" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB152" s="15"/>
       <c r="AC152" s="5"/>
@@ -10969,14 +11022,14 @@
         <v>31</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>217</v>
@@ -11005,14 +11058,14 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y153" s="12">
         <v>0</v>
       </c>
       <c r="Z153" s="3"/>
       <c r="AA153" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB153" s="15"/>
       <c r="AC153" s="5"/>
@@ -11029,14 +11082,14 @@
         <v>31</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>217</v>
@@ -11065,17 +11118,17 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y154" s="12">
         <v>0</v>
       </c>
       <c r="Z154" s="3"/>
       <c r="AA154" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB154" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC154" s="5"/>
       <c r="AD154" s="5"/>
@@ -11091,14 +11144,14 @@
         <v>31</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>217</v>
@@ -11127,14 +11180,14 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
       <c r="X155" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y155" s="12">
         <v>0</v>
       </c>
       <c r="Z155" s="3"/>
       <c r="AA155" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB155" s="15"/>
       <c r="AC155" s="5"/>
@@ -11151,14 +11204,14 @@
         <v>31</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>224</v>
@@ -11187,14 +11240,14 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y156" s="12">
         <v>0</v>
       </c>
       <c r="Z156" s="3"/>
       <c r="AA156" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB156" s="15"/>
       <c r="AC156" s="5"/>
@@ -11211,14 +11264,14 @@
         <v>31</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>224</v>
@@ -11247,14 +11300,14 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y157" s="12">
         <v>0</v>
       </c>
       <c r="Z157" s="3"/>
       <c r="AA157" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB157" s="15"/>
       <c r="AC157" s="5"/>
@@ -11271,14 +11324,14 @@
         <v>31</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>224</v>
@@ -11307,14 +11360,14 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y158" s="12">
         <v>0</v>
       </c>
       <c r="Z158" s="3"/>
       <c r="AA158" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB158" s="15"/>
       <c r="AC158" s="5"/>
@@ -11331,14 +11384,14 @@
         <v>31</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>224</v>
@@ -11367,17 +11420,17 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y159" s="12">
         <v>0</v>
       </c>
       <c r="Z159" s="3"/>
       <c r="AA159" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB159" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC159" s="5"/>
       <c r="AD159" s="5"/>
@@ -11393,14 +11446,14 @@
         <v>31</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>224</v>
@@ -11429,14 +11482,14 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
       <c r="X160" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y160" s="12">
         <v>0</v>
       </c>
       <c r="Z160" s="3"/>
       <c r="AA160" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB160" s="15"/>
       <c r="AC160" s="5"/>
@@ -11453,14 +11506,14 @@
         <v>31</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>224</v>
@@ -11489,14 +11542,14 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
       <c r="X161" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y161" s="12">
         <v>0</v>
       </c>
       <c r="Z161" s="3"/>
       <c r="AA161" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB161" s="15"/>
       <c r="AC161" s="5"/>
@@ -11513,14 +11566,14 @@
         <v>31</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>224</v>
@@ -11549,14 +11602,14 @@
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
       <c r="X162" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y162" s="12">
         <v>0</v>
       </c>
       <c r="Z162" s="3"/>
       <c r="AA162" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB162" s="15"/>
       <c r="AC162" s="5"/>
@@ -11573,14 +11626,14 @@
         <v>31</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>224</v>
@@ -11609,17 +11662,17 @@
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
       <c r="X163" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y163" s="12">
         <v>0</v>
       </c>
       <c r="Z163" s="3"/>
       <c r="AA163" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB163" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC163" s="5"/>
       <c r="AD163" s="5"/>
@@ -11635,14 +11688,14 @@
         <v>31</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>224</v>
@@ -11671,14 +11724,14 @@
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
       <c r="X164" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y164" s="12">
         <v>0</v>
       </c>
       <c r="Z164" s="3"/>
       <c r="AA164" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB164" s="15"/>
       <c r="AC164" s="5"/>
@@ -11695,14 +11748,14 @@
         <v>31</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
@@ -11727,14 +11780,14 @@
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
       <c r="X165" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y165" s="12">
         <v>0</v>
       </c>
       <c r="Z165" s="3"/>
       <c r="AA165" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB165" s="15"/>
       <c r="AC165" s="5"/>
@@ -11751,14 +11804,14 @@
         <v>31</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -11783,14 +11836,14 @@
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
       <c r="X166" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y166" s="12">
         <v>0</v>
       </c>
       <c r="Z166" s="3"/>
       <c r="AA166" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB166" s="15"/>
       <c r="AC166" s="5"/>
@@ -11807,14 +11860,14 @@
         <v>31</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -11839,14 +11892,14 @@
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
       <c r="X167" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y167" s="12">
         <v>0</v>
       </c>
       <c r="Z167" s="3"/>
       <c r="AA167" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB167" s="15"/>
       <c r="AC167" s="5"/>
@@ -11863,14 +11916,14 @@
         <v>31</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
@@ -11895,14 +11948,14 @@
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
       <c r="X168" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y168" s="12">
         <v>0</v>
       </c>
       <c r="Z168" s="3"/>
       <c r="AA168" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB168" s="15"/>
       <c r="AC168" s="5"/>
@@ -11919,14 +11972,14 @@
         <v>31</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -11951,14 +12004,14 @@
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
       <c r="X169" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y169" s="12">
         <v>0</v>
       </c>
       <c r="Z169" s="3"/>
       <c r="AA169" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB169" s="15"/>
       <c r="AC169" s="5"/>
@@ -11975,14 +12028,14 @@
         <v>31</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
@@ -12007,14 +12060,14 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
       <c r="X170" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y170" s="12">
         <v>0</v>
       </c>
       <c r="Z170" s="3"/>
       <c r="AA170" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB170" s="15"/>
       <c r="AC170" s="5"/>
@@ -12031,14 +12084,14 @@
         <v>31</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
@@ -12063,14 +12116,14 @@
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
       <c r="X171" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y171" s="12">
         <v>0</v>
       </c>
       <c r="Z171" s="3"/>
       <c r="AA171" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB171" s="15"/>
       <c r="AC171" s="5"/>
@@ -12087,14 +12140,14 @@
         <v>31</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
@@ -12119,14 +12172,14 @@
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
       <c r="X172" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y172" s="12">
         <v>0</v>
       </c>
       <c r="Z172" s="3"/>
       <c r="AA172" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB172" s="15"/>
       <c r="AC172" s="5"/>
@@ -12143,14 +12196,14 @@
         <v>31</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
@@ -12175,14 +12228,14 @@
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
       <c r="X173" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y173" s="12">
         <v>0</v>
       </c>
       <c r="Z173" s="3"/>
       <c r="AA173" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB173" s="15"/>
       <c r="AC173" s="5"/>
@@ -12199,14 +12252,14 @@
         <v>31</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
@@ -12231,14 +12284,14 @@
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
       <c r="X174" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y174" s="12">
         <v>0</v>
       </c>
       <c r="Z174" s="3"/>
       <c r="AA174" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB174" s="15"/>
       <c r="AC174" s="5"/>
@@ -12255,14 +12308,14 @@
         <v>31</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
@@ -12287,14 +12340,14 @@
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
       <c r="X175" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y175" s="12">
         <v>0</v>
       </c>
       <c r="Z175" s="3"/>
       <c r="AA175" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB175" s="15"/>
       <c r="AC175" s="5"/>
@@ -12311,14 +12364,14 @@
         <v>31</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
@@ -12343,14 +12396,14 @@
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
       <c r="X176" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y176" s="12">
         <v>0</v>
       </c>
       <c r="Z176" s="3"/>
       <c r="AA176" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB176" s="15"/>
       <c r="AC176" s="5"/>
@@ -12367,14 +12420,14 @@
         <v>31</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
@@ -12399,14 +12452,14 @@
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
       <c r="X177" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y177" s="12">
         <v>0</v>
       </c>
       <c r="Z177" s="3"/>
       <c r="AA177" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB177" s="15"/>
       <c r="AC177" s="5"/>
@@ -12423,14 +12476,14 @@
         <v>31</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -12455,14 +12508,14 @@
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
       <c r="X178" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y178" s="12">
         <v>0</v>
       </c>
       <c r="Z178" s="3"/>
       <c r="AA178" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB178" s="15"/>
       <c r="AC178" s="5"/>
@@ -12479,21 +12532,23 @@
         <v>31</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E179" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
-      <c r="L179" s="7">
-        <v>54</v>
+      <c r="L179" s="12">
+        <v>64</v>
       </c>
       <c r="M179" s="7">
         <v>45</v>
@@ -12516,7 +12571,7 @@
       </c>
       <c r="Z179" s="3"/>
       <c r="AA179" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AB179" s="5"/>
       <c r="AC179" s="5"/>
@@ -12533,21 +12588,23 @@
         <v>31</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E180" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
-      <c r="L180" s="7">
-        <v>102</v>
+      <c r="L180" s="12">
+        <v>122</v>
       </c>
       <c r="M180" s="7">
         <v>45</v>
@@ -12570,7 +12627,7 @@
       </c>
       <c r="Z180" s="3"/>
       <c r="AA180" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AB180" s="5"/>
       <c r="AC180" s="5"/>
@@ -12587,24 +12644,26 @@
         <v>31</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E181" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
-      <c r="L181" s="7">
-        <v>936</v>
+      <c r="L181" s="12">
+        <v>180</v>
       </c>
       <c r="M181" s="7">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
@@ -12624,7 +12683,7 @@
       </c>
       <c r="Z181" s="3"/>
       <c r="AA181" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AB181" s="5"/>
       <c r="AC181" s="5"/>
@@ -12641,13 +12700,15 @@
         <v>31</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E182" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
@@ -12655,7 +12716,7 @@
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7">
-        <v>974</v>
+        <v>936</v>
       </c>
       <c r="M182" s="7">
         <v>567</v>
@@ -12678,7 +12739,7 @@
       </c>
       <c r="Z182" s="3"/>
       <c r="AA182" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AB182" s="5"/>
       <c r="AC182" s="5"/>
@@ -12692,16 +12753,18 @@
     </row>
     <row r="183" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C183" s="4"/>
-      <c r="D183" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E183" s="4"/>
+      <c r="D183" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
@@ -12709,10 +12772,10 @@
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="M183" s="7">
-        <v>211</v>
+        <v>567</v>
       </c>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
@@ -12723,12 +12786,16 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
-      <c r="W183" s="7"/>
-      <c r="X183" s="4"/>
-      <c r="Y183" s="4"/>
-      <c r="Z183" s="4"/>
-      <c r="AA183" s="10" t="s">
-        <v>360</v>
+      <c r="W183" s="4"/>
+      <c r="X183" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y183" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z183" s="3"/>
+      <c r="AA183" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="AB183" s="5"/>
       <c r="AC183" s="5"/>
@@ -12742,16 +12809,18 @@
     </row>
     <row r="184" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E184" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>367</v>
+      </c>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
@@ -12759,7 +12828,7 @@
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="M184" s="7">
         <v>211</v>
@@ -12778,7 +12847,7 @@
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
       <c r="AA184" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AB184" s="5"/>
       <c r="AC184" s="5"/>
@@ -12792,16 +12861,18 @@
     </row>
     <row r="185" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E185" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>370</v>
+      </c>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
@@ -12809,10 +12880,10 @@
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7">
-        <v>773</v>
+        <v>174</v>
       </c>
       <c r="M185" s="7">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -12828,7 +12899,7 @@
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
       <c r="AA185" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AB185" s="5"/>
       <c r="AC185" s="5"/>
@@ -12842,16 +12913,18 @@
     </row>
     <row r="186" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E186" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>372</v>
+      </c>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
@@ -12862,7 +12935,7 @@
         <v>773</v>
       </c>
       <c r="M186" s="7">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
@@ -12878,7 +12951,7 @@
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
       <c r="AA186" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AB186" s="5"/>
       <c r="AC186" s="5"/>
@@ -12892,16 +12965,18 @@
     </row>
     <row r="187" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E187" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>374</v>
+      </c>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
@@ -12909,10 +12984,10 @@
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7">
-        <v>664</v>
+        <v>773</v>
       </c>
       <c r="M187" s="7">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
@@ -12928,7 +13003,7 @@
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
       <c r="AA187" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AB187" s="5"/>
       <c r="AC187" s="5"/>
@@ -12942,16 +13017,18 @@
     </row>
     <row r="188" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E188" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>376</v>
+      </c>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
@@ -12962,7 +13039,7 @@
         <v>664</v>
       </c>
       <c r="M188" s="7">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
@@ -12978,7 +13055,7 @@
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
       <c r="AA188" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AB188" s="5"/>
       <c r="AC188" s="5"/>
@@ -12992,16 +13069,18 @@
     </row>
     <row r="189" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E189" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>378</v>
+      </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
@@ -13009,10 +13088,10 @@
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7">
-        <v>1572</v>
+        <v>664</v>
       </c>
       <c r="M189" s="7">
-        <v>218</v>
+        <v>452</v>
       </c>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
@@ -13028,7 +13107,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
       <c r="AA189" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AB189" s="5"/>
       <c r="AC189" s="5"/>
@@ -13042,16 +13121,18 @@
     </row>
     <row r="190" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E190" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>380</v>
+      </c>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
@@ -13059,10 +13140,10 @@
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7">
-        <v>1037</v>
+        <v>1572</v>
       </c>
       <c r="M190" s="7">
-        <v>385</v>
+        <v>218</v>
       </c>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
@@ -13078,7 +13159,7 @@
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
       <c r="AA190" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AB190" s="5"/>
       <c r="AC190" s="5"/>
@@ -13092,16 +13173,18 @@
     </row>
     <row r="191" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E191" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>382</v>
+      </c>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
@@ -13109,10 +13192,10 @@
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7">
-        <v>1615</v>
+        <v>1037</v>
       </c>
       <c r="M191" s="7">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
@@ -13128,7 +13211,7 @@
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
       <c r="AA191" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AB191" s="5"/>
       <c r="AC191" s="5"/>
@@ -13142,16 +13225,18 @@
     </row>
     <row r="192" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E192" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>384</v>
+      </c>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
@@ -13159,7 +13244,7 @@
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7">
-        <v>1765</v>
+        <v>1615</v>
       </c>
       <c r="M192" s="7">
         <v>405</v>
@@ -13178,7 +13263,7 @@
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
       <c r="AA192" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AB192" s="5"/>
       <c r="AC192" s="5"/>
@@ -13191,19 +13276,31 @@
       <c r="AJ192" s="5"/>
     </row>
     <row r="193" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
+      <c r="A193" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>385</v>
+      </c>
       <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
+      <c r="D193" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>386</v>
+      </c>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-      <c r="M193" s="4"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7">
+        <v>1765</v>
+      </c>
+      <c r="M193" s="7">
+        <v>405</v>
+      </c>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
       <c r="P193" s="4"/>
@@ -13213,11 +13310,13 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
-      <c r="W193" s="4"/>
+      <c r="W193" s="7"/>
       <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
-      <c r="AA193" s="5"/>
+      <c r="AA193" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="AB193" s="5"/>
       <c r="AC193" s="5"/>
       <c r="AD193" s="5"/>
@@ -13304,6 +13403,44 @@
       <c r="AI195" s="5"/>
       <c r="AJ195" s="5"/>
     </row>
+    <row r="196" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4"/>
+      <c r="Y196" s="4"/>
+      <c r="Z196" s="4"/>
+      <c r="AA196" s="5"/>
+      <c r="AB196" s="5"/>
+      <c r="AC196" s="5"/>
+      <c r="AD196" s="5"/>
+      <c r="AE196" s="5"/>
+      <c r="AF196" s="5"/>
+      <c r="AG196" s="5"/>
+      <c r="AH196" s="5"/>
+      <c r="AI196" s="5"/>
+      <c r="AJ196" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13315,19 +13452,19 @@
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G195 I2:I195</xm:sqref>
+          <xm:sqref>G2:G196 I2:I196</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A195</xm:sqref>
+          <xm:sqref>A2:A196</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K195</xm:sqref>
+          <xm:sqref>K2:K196</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13348,18 +13485,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>186</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>189</v>
@@ -13423,7 +13560,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
